--- a/SBI창업가뇌지수문항CSV.xlsx
+++ b/SBI창업가뇌지수문항CSV.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="585" uniqueCount="164">
   <si>
     <t xml:space="preserve">영역 </t>
   </si>
@@ -531,6 +531,34 @@
   </si>
   <si>
     <t>나는 불확실한 상황에서 회피하기보다는 위험 극복 방안을 적극적으로 찾는다.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>비고</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>제외</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>제외</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>선택</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>선택</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>선택</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>선택</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -538,7 +566,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -698,8 +726,21 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="돋움"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
   </fonts>
-  <fills count="33">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -879,8 +920,32 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -995,6 +1060,107 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thick">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="dotted">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="dotted">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="dotted">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="dotted">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="dotted">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="dotted">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="dotted">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="dotted">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1124,12 +1290,54 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="35" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="35" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="35" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="35" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="36" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="36" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="36" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="36" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1452,10 +1660,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H97"/>
+  <dimension ref="A1:I97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D35" workbookViewId="0">
-      <selection activeCell="G38" sqref="G38"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="I90" sqref="I90:I96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1470,7 +1678,7 @@
     <col min="8" max="8" width="8.59765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1495,8 +1703,11 @@
       <c r="H1" s="1" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="I1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="36" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -1521,8 +1732,11 @@
       <c r="H2">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="I2" s="2" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="36" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
@@ -1547,8 +1761,11 @@
       <c r="H3">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="I3" s="2" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="36" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
@@ -1573,8 +1790,11 @@
       <c r="H4">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="I4" s="2" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="36" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
@@ -1599,8 +1819,11 @@
       <c r="H5">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="I5" s="2" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="36" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -1625,8 +1848,11 @@
       <c r="H6">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="I6" s="2" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="35.4" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -1651,8 +1877,11 @@
       <c r="H7">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="I7" s="2" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A8" s="1" t="s">
         <v>5</v>
       </c>
@@ -1677,8 +1906,11 @@
       <c r="H8">
         <v>5</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="I8" s="3" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="35.4" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
         <v>5</v>
       </c>
@@ -1703,8 +1935,11 @@
       <c r="H9">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="I9" s="4" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="36" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
         <v>5</v>
       </c>
@@ -1729,8 +1964,11 @@
       <c r="H10">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="I10" s="2" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="36" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A11" s="1" t="s">
         <v>5</v>
       </c>
@@ -1755,8 +1993,11 @@
       <c r="H11">
         <v>3</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="I11" s="2" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="36" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A12" s="1" t="s">
         <v>5</v>
       </c>
@@ -1781,8 +2022,11 @@
       <c r="H12">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="I12" s="2" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="36" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A13" s="1" t="s">
         <v>5</v>
       </c>
@@ -1807,8 +2051,11 @@
       <c r="H13">
         <v>5</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="I13" s="2" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="36" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A14" s="1" t="s">
         <v>5</v>
       </c>
@@ -1833,8 +2080,11 @@
       <c r="H14">
         <v>5</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="I14" s="2" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="36" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A15" s="1" t="s">
         <v>5</v>
       </c>
@@ -1859,8 +2109,11 @@
       <c r="H15">
         <v>5</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="I15" s="2" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="36" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A16" s="1" t="s">
         <v>5</v>
       </c>
@@ -1885,8 +2138,11 @@
       <c r="H16">
         <v>3</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="I16" s="2" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="36" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A17" s="1" t="s">
         <v>5</v>
       </c>
@@ -1911,8 +2167,11 @@
       <c r="H17">
         <v>5</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="I17" s="2" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="36" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A18" s="1" t="s">
         <v>5</v>
       </c>
@@ -1937,8 +2196,11 @@
       <c r="H18">
         <v>5</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="I18" s="2" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="36" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A19" s="1" t="s">
         <v>5</v>
       </c>
@@ -1963,8 +2225,11 @@
       <c r="H19">
         <v>5</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="I19" s="2" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="35.4" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A20" s="1" t="s">
         <v>5</v>
       </c>
@@ -1989,8 +2254,11 @@
       <c r="H20">
         <v>5</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="I20" s="2" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="35.4" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A21" s="1" t="s">
         <v>5</v>
       </c>
@@ -2015,8 +2283,11 @@
       <c r="H21">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="I21" s="3" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="36" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A22" s="1" t="s">
         <v>5</v>
       </c>
@@ -2041,8 +2312,11 @@
       <c r="H22">
         <v>5</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="I22" s="2" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="36" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A23" s="1" t="s">
         <v>5</v>
       </c>
@@ -2067,8 +2341,11 @@
       <c r="H23">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="I23" s="2" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="36" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A24" s="1" t="s">
         <v>5</v>
       </c>
@@ -2093,8 +2370,11 @@
       <c r="H24">
         <v>5</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="I24" s="2" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="35.4" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A25" s="1" t="s">
         <v>5</v>
       </c>
@@ -2119,8 +2399,11 @@
       <c r="H25">
         <v>3</v>
       </c>
-    </row>
-    <row r="26" spans="1:8" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="I25" s="2" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A26" s="1" t="s">
         <v>43</v>
       </c>
@@ -2145,8 +2428,11 @@
       <c r="H26">
         <v>5</v>
       </c>
-    </row>
-    <row r="27" spans="1:8" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="I26" s="5" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A27" s="1" t="s">
         <v>43</v>
       </c>
@@ -2171,8 +2457,11 @@
       <c r="H27">
         <v>5</v>
       </c>
-    </row>
-    <row r="28" spans="1:8" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="I27" s="5" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A28" s="1" t="s">
         <v>43</v>
       </c>
@@ -2197,8 +2486,11 @@
       <c r="H28">
         <v>5</v>
       </c>
-    </row>
-    <row r="29" spans="1:8" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="I28" s="5" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A29" s="1" t="s">
         <v>43</v>
       </c>
@@ -2223,8 +2515,11 @@
       <c r="H29">
         <v>3</v>
       </c>
-    </row>
-    <row r="30" spans="1:8" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="I29" s="5" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A30" s="1" t="s">
         <v>43</v>
       </c>
@@ -2249,8 +2544,11 @@
       <c r="H30">
         <v>3</v>
       </c>
-    </row>
-    <row r="31" spans="1:8" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="I30" s="6" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A31" s="1" t="s">
         <v>43</v>
       </c>
@@ -2275,8 +2573,11 @@
       <c r="H31">
         <v>5</v>
       </c>
-    </row>
-    <row r="32" spans="1:8" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="I31" s="6" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A32" s="1" t="s">
         <v>43</v>
       </c>
@@ -2301,8 +2602,11 @@
       <c r="H32">
         <v>5</v>
       </c>
-    </row>
-    <row r="33" spans="1:8" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="I32" s="6" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A33" s="1" t="s">
         <v>43</v>
       </c>
@@ -2327,8 +2631,11 @@
       <c r="H33">
         <v>5</v>
       </c>
-    </row>
-    <row r="34" spans="1:8" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="I33" s="7" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A34" s="1" t="s">
         <v>43</v>
       </c>
@@ -2353,8 +2660,11 @@
       <c r="H34">
         <v>5</v>
       </c>
-    </row>
-    <row r="35" spans="1:8" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="I34" s="5" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A35" s="1" t="s">
         <v>43</v>
       </c>
@@ -2379,8 +2689,11 @@
       <c r="H35">
         <v>5</v>
       </c>
-    </row>
-    <row r="36" spans="1:8" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="I35" s="5" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A36" s="1" t="s">
         <v>43</v>
       </c>
@@ -2405,8 +2718,11 @@
       <c r="H36">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="1:8" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="I36" s="5" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A37" s="1" t="s">
         <v>43</v>
       </c>
@@ -2431,8 +2747,11 @@
       <c r="H37">
         <v>5</v>
       </c>
-    </row>
-    <row r="38" spans="1:8" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="I37" s="6" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A38" s="1" t="s">
         <v>43</v>
       </c>
@@ -2457,8 +2776,11 @@
       <c r="H38">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="1:8" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="I38" s="6" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A39" s="1" t="s">
         <v>43</v>
       </c>
@@ -2483,8 +2805,11 @@
       <c r="H39">
         <v>5</v>
       </c>
-    </row>
-    <row r="40" spans="1:8" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="I39" s="5" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A40" s="1" t="s">
         <v>43</v>
       </c>
@@ -2509,8 +2834,11 @@
       <c r="H40">
         <v>5</v>
       </c>
-    </row>
-    <row r="41" spans="1:8" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="I40" s="5" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A41" s="1" t="s">
         <v>43</v>
       </c>
@@ -2535,8 +2863,11 @@
       <c r="H41">
         <v>5</v>
       </c>
-    </row>
-    <row r="42" spans="1:8" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="I41" s="5" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A42" s="1" t="s">
         <v>43</v>
       </c>
@@ -2561,8 +2892,11 @@
       <c r="H42">
         <v>1</v>
       </c>
-    </row>
-    <row r="43" spans="1:8" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="I42" s="5" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A43" s="1" t="s">
         <v>43</v>
       </c>
@@ -2587,8 +2921,11 @@
       <c r="H43">
         <v>5</v>
       </c>
-    </row>
-    <row r="44" spans="1:8" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="I43" s="5" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A44" s="1" t="s">
         <v>43</v>
       </c>
@@ -2613,8 +2950,11 @@
       <c r="H44">
         <v>5</v>
       </c>
-    </row>
-    <row r="45" spans="1:8" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="I44" s="5" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A45" s="1" t="s">
         <v>43</v>
       </c>
@@ -2639,8 +2979,11 @@
       <c r="H45">
         <v>5</v>
       </c>
-    </row>
-    <row r="46" spans="1:8" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="I45" s="5" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A46" s="1" t="s">
         <v>43</v>
       </c>
@@ -2665,8 +3008,11 @@
       <c r="H46">
         <v>5</v>
       </c>
-    </row>
-    <row r="47" spans="1:8" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="I46" s="5" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A47" s="1" t="s">
         <v>43</v>
       </c>
@@ -2691,8 +3037,11 @@
       <c r="H47">
         <v>5</v>
       </c>
-    </row>
-    <row r="48" spans="1:8" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="I47" s="6" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A48" s="1" t="s">
         <v>43</v>
       </c>
@@ -2717,8 +3066,11 @@
       <c r="H48">
         <v>5</v>
       </c>
-    </row>
-    <row r="49" spans="1:8" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="I48" s="5" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A49" s="1" t="s">
         <v>43</v>
       </c>
@@ -2743,8 +3095,11 @@
       <c r="H49">
         <v>5</v>
       </c>
-    </row>
-    <row r="50" spans="1:8" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="I49" s="5" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A50" s="1" t="s">
         <v>79</v>
       </c>
@@ -2769,8 +3124,11 @@
       <c r="H50">
         <v>5</v>
       </c>
-    </row>
-    <row r="51" spans="1:8" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="I50" s="8" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A51" s="1" t="s">
         <v>79</v>
       </c>
@@ -2795,8 +3153,11 @@
       <c r="H51">
         <v>5</v>
       </c>
-    </row>
-    <row r="52" spans="1:8" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="I51" s="8" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A52" s="1" t="s">
         <v>79</v>
       </c>
@@ -2821,8 +3182,11 @@
       <c r="H52">
         <v>5</v>
       </c>
-    </row>
-    <row r="53" spans="1:8" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="I52" s="8" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A53" s="1" t="s">
         <v>79</v>
       </c>
@@ -2847,8 +3211,11 @@
       <c r="H53">
         <v>5</v>
       </c>
-    </row>
-    <row r="54" spans="1:8" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="I53" s="8" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A54" s="1" t="s">
         <v>79</v>
       </c>
@@ -2873,8 +3240,11 @@
       <c r="H54">
         <v>5</v>
       </c>
-    </row>
-    <row r="55" spans="1:8" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="I54" s="8" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A55" s="1" t="s">
         <v>79</v>
       </c>
@@ -2899,8 +3269,11 @@
       <c r="H55">
         <v>5</v>
       </c>
-    </row>
-    <row r="56" spans="1:8" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="I55" s="9" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A56" s="1" t="s">
         <v>79</v>
       </c>
@@ -2925,8 +3298,11 @@
       <c r="H56">
         <v>1</v>
       </c>
-    </row>
-    <row r="57" spans="1:8" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="I56" s="9" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A57" s="1" t="s">
         <v>79</v>
       </c>
@@ -2951,8 +3327,11 @@
       <c r="H57">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="1:8" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="I57" s="10" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A58" s="1" t="s">
         <v>79</v>
       </c>
@@ -2977,8 +3356,11 @@
       <c r="H58">
         <v>5</v>
       </c>
-    </row>
-    <row r="59" spans="1:8" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="I58" s="8" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A59" s="1" t="s">
         <v>79</v>
       </c>
@@ -3003,8 +3385,11 @@
       <c r="H59">
         <v>5</v>
       </c>
-    </row>
-    <row r="60" spans="1:8" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="I59" s="8" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A60" s="1" t="s">
         <v>79</v>
       </c>
@@ -3029,8 +3414,11 @@
       <c r="H60">
         <v>5</v>
       </c>
-    </row>
-    <row r="61" spans="1:8" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="I60" s="8" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A61" s="1" t="s">
         <v>79</v>
       </c>
@@ -3055,8 +3443,11 @@
       <c r="H61">
         <v>5</v>
       </c>
-    </row>
-    <row r="62" spans="1:8" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="I61" s="9" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A62" s="1" t="s">
         <v>79</v>
       </c>
@@ -3081,8 +3472,11 @@
       <c r="H62">
         <v>5</v>
       </c>
-    </row>
-    <row r="63" spans="1:8" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="I62" s="8" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A63" s="1" t="s">
         <v>79</v>
       </c>
@@ -3107,8 +3501,11 @@
       <c r="H63">
         <v>5</v>
       </c>
-    </row>
-    <row r="64" spans="1:8" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="I63" s="9" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A64" s="1" t="s">
         <v>79</v>
       </c>
@@ -3133,8 +3530,11 @@
       <c r="H64">
         <v>3</v>
       </c>
-    </row>
-    <row r="65" spans="1:8" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="I64" s="9" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A65" s="1" t="s">
         <v>79</v>
       </c>
@@ -3159,8 +3559,11 @@
       <c r="H65">
         <v>3</v>
       </c>
-    </row>
-    <row r="66" spans="1:8" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="I65" s="11" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A66" s="1" t="s">
         <v>79</v>
       </c>
@@ -3185,8 +3588,11 @@
       <c r="H66">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="1:8" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="I66" s="8" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A67" s="1" t="s">
         <v>79</v>
       </c>
@@ -3211,8 +3617,11 @@
       <c r="H67">
         <v>3</v>
       </c>
-    </row>
-    <row r="68" spans="1:8" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="I67" s="8" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A68" s="1" t="s">
         <v>79</v>
       </c>
@@ -3237,8 +3646,11 @@
       <c r="H68">
         <v>1</v>
       </c>
-    </row>
-    <row r="69" spans="1:8" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="I68" s="8" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A69" s="1" t="s">
         <v>79</v>
       </c>
@@ -3263,8 +3675,11 @@
       <c r="H69">
         <v>3</v>
       </c>
-    </row>
-    <row r="70" spans="1:8" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="I69" s="8" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A70" s="1" t="s">
         <v>79</v>
       </c>
@@ -3289,8 +3704,11 @@
       <c r="H70">
         <v>3</v>
       </c>
-    </row>
-    <row r="71" spans="1:8" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="I70" s="8" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A71" s="1" t="s">
         <v>79</v>
       </c>
@@ -3315,8 +3733,11 @@
       <c r="H71">
         <v>3</v>
       </c>
-    </row>
-    <row r="72" spans="1:8" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="I71" s="8" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A72" s="1" t="s">
         <v>79</v>
       </c>
@@ -3341,8 +3762,11 @@
       <c r="H72">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="1:8" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="I72" s="8" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" ht="35.4" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A73" s="1" t="s">
         <v>79</v>
       </c>
@@ -3367,8 +3791,11 @@
       <c r="H73">
         <v>3</v>
       </c>
-    </row>
-    <row r="74" spans="1:8" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="I73" s="8" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A74" s="1" t="s">
         <v>116</v>
       </c>
@@ -3393,8 +3820,11 @@
       <c r="H74">
         <v>3</v>
       </c>
-    </row>
-    <row r="75" spans="1:8" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="I74" s="12" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" ht="35.4" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A75" s="1" t="s">
         <v>116</v>
       </c>
@@ -3419,8 +3849,11 @@
       <c r="H75">
         <v>3</v>
       </c>
-    </row>
-    <row r="76" spans="1:8" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="I75" s="13" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A76" s="1" t="s">
         <v>116</v>
       </c>
@@ -3445,8 +3878,11 @@
       <c r="H76">
         <v>5</v>
       </c>
-    </row>
-    <row r="77" spans="1:8" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="I76" s="12" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" ht="35.4" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A77" s="1" t="s">
         <v>116</v>
       </c>
@@ -3471,8 +3907,11 @@
       <c r="H77">
         <v>5</v>
       </c>
-    </row>
-    <row r="78" spans="1:8" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="I77" s="13" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" ht="35.4" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A78" s="1" t="s">
         <v>116</v>
       </c>
@@ -3497,8 +3936,11 @@
       <c r="H78">
         <v>3</v>
       </c>
-    </row>
-    <row r="79" spans="1:8" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="I78" s="12" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" ht="35.4" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A79" s="1" t="s">
         <v>116</v>
       </c>
@@ -3523,8 +3965,11 @@
       <c r="H79">
         <v>3</v>
       </c>
-    </row>
-    <row r="80" spans="1:8" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="I79" s="12" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" ht="35.4" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A80" s="1" t="s">
         <v>116</v>
       </c>
@@ -3549,8 +3994,11 @@
       <c r="H80">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="1:8" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="I80" s="12" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" ht="35.4" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A81" s="1" t="s">
         <v>116</v>
       </c>
@@ -3575,8 +4023,11 @@
       <c r="H81">
         <v>5</v>
       </c>
-    </row>
-    <row r="82" spans="1:8" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="I81" s="12" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" ht="35.4" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A82" s="1" t="s">
         <v>116</v>
       </c>
@@ -3601,8 +4052,11 @@
       <c r="H82">
         <v>3</v>
       </c>
-    </row>
-    <row r="83" spans="1:8" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="I82" s="12" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" ht="35.4" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A83" s="1" t="s">
         <v>116</v>
       </c>
@@ -3627,8 +4081,11 @@
       <c r="H83">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="1:8" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="I83" s="12" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" ht="35.4" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A84" s="1" t="s">
         <v>116</v>
       </c>
@@ -3653,8 +4110,11 @@
       <c r="H84">
         <v>3</v>
       </c>
-    </row>
-    <row r="85" spans="1:8" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="I84" s="12" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" ht="35.4" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A85" s="1" t="s">
         <v>116</v>
       </c>
@@ -3679,8 +4139,11 @@
       <c r="H85">
         <v>3</v>
       </c>
-    </row>
-    <row r="86" spans="1:8" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="I85" s="12" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A86" s="1" t="s">
         <v>116</v>
       </c>
@@ -3705,8 +4168,11 @@
       <c r="H86">
         <v>3</v>
       </c>
-    </row>
-    <row r="87" spans="1:8" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="I86" s="12" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A87" s="1" t="s">
         <v>116</v>
       </c>
@@ -3731,8 +4197,11 @@
       <c r="H87">
         <v>3</v>
       </c>
-    </row>
-    <row r="88" spans="1:8" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="I87" s="13" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A88" s="1" t="s">
         <v>116</v>
       </c>
@@ -3757,8 +4226,11 @@
       <c r="H88">
         <v>2</v>
       </c>
-    </row>
-    <row r="89" spans="1:8" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="I88" s="13" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" ht="35.4" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A89" s="1" t="s">
         <v>116</v>
       </c>
@@ -3783,8 +4255,11 @@
       <c r="H89">
         <v>2</v>
       </c>
-    </row>
-    <row r="90" spans="1:8" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="I89" s="14" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" ht="35.4" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A90" s="1" t="s">
         <v>116</v>
       </c>
@@ -3809,8 +4284,11 @@
       <c r="H90">
         <v>3</v>
       </c>
-    </row>
-    <row r="91" spans="1:8" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="I90" s="12" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" ht="35.4" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A91" s="1" t="s">
         <v>116</v>
       </c>
@@ -3835,8 +4313,11 @@
       <c r="H91">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="1:8" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="I91" s="12" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" ht="35.4" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A92" s="1" t="s">
         <v>116</v>
       </c>
@@ -3861,8 +4342,11 @@
       <c r="H92">
         <v>1</v>
       </c>
-    </row>
-    <row r="93" spans="1:8" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="I92" s="12" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" ht="35.4" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A93" s="1" t="s">
         <v>116</v>
       </c>
@@ -3887,8 +4371,11 @@
       <c r="H93">
         <v>3</v>
       </c>
-    </row>
-    <row r="94" spans="1:8" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="I93" s="12" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" ht="35.4" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A94" s="1" t="s">
         <v>116</v>
       </c>
@@ -3913,8 +4400,11 @@
       <c r="H94">
         <v>2</v>
       </c>
-    </row>
-    <row r="95" spans="1:8" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="I94" s="12" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" ht="35.4" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A95" s="1" t="s">
         <v>116</v>
       </c>
@@ -3939,8 +4429,11 @@
       <c r="H95">
         <v>3</v>
       </c>
-    </row>
-    <row r="96" spans="1:8" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="I95" s="12" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A96" s="1" t="s">
         <v>116</v>
       </c>
@@ -3965,8 +4458,11 @@
       <c r="H96">
         <v>1</v>
       </c>
-    </row>
-    <row r="97" spans="1:8" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="I96" s="12" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" ht="35.4" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A97" s="1" t="s">
         <v>116</v>
       </c>
@@ -3990,6 +4486,9 @@
       </c>
       <c r="H97">
         <v>2</v>
+      </c>
+      <c r="I97" s="15" t="s">
+        <v>159</v>
       </c>
     </row>
   </sheetData>
